--- a/src/storage/ad-coupon/fb.xlsx
+++ b/src/storage/ad-coupon/fb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>品牌</t>
   </si>
@@ -46,16 +46,79 @@
     <t>量级</t>
   </si>
   <si>
+    <t>维达</t>
+  </si>
+  <si>
+    <t>199-115</t>
+  </si>
+  <si>
+    <t>https://s.vchangyi.com/6h</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbwd1107&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>百雀羚</t>
+  </si>
+  <si>
+    <t>169-130</t>
+  </si>
+  <si>
+    <t>https://s.vchangyi.com/br</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbbql1203&amp;brand_id=12</t>
+  </si>
+  <si>
+    <t>韩束</t>
+  </si>
+  <si>
+    <t>199-130</t>
+  </si>
+  <si>
+    <t>https://s.vchangyi.com/bv</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbhs1021&amp;brand_id=11</t>
+  </si>
+  <si>
+    <t>一叶子</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbyyz1104&amp;brand_id=39</t>
+  </si>
+  <si>
+    <t>百草味</t>
+  </si>
+  <si>
+    <t>299-215</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbbcw102104&amp;brand_id=18</t>
+  </si>
+  <si>
+    <t>法兰琳卡</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbfllk1203&amp;brand_id=9</t>
+  </si>
+  <si>
     <t>三生花</t>
   </si>
   <si>
     <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbssh1203&amp;brand_id=44</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>温碧泉</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbwbq102101&amp;brand_id=36</t>
   </si>
   <si>
     <t>南极人内衣</t>
@@ -73,7 +136,7 @@
     <t>活动页</t>
   </si>
   <si>
-    <t>other/sevenactive/sevenactive?channel=i-fb_fbhfhdy1104&amp;topic_id=6</t>
+    <t>pages/sevenactive/sevenactive?topic_id=23&amp;channel=i-wx-dyyy_12120zhibowaitou2</t>
   </si>
 </sst>
 </file>
@@ -82,12 +145,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +165,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -109,8 +187,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,21 +248,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,13 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -191,31 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +309,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -237,13 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,15 +332,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,55 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,67 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,60 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,26 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +568,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,16 +647,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,152 +665,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,22 +820,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,13 +1181,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.8" style="1" customWidth="1"/>
@@ -1095,7 +1219,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1109,87 +1233,917 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>15251726</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13">
+        <v>44177</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15322926</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15226356</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15262217</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15227008</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15323021</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
         <v>15322927</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <v>15226477</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15226635</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15300050</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15">
+        <v>44177</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15251726</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7">
-        <v>44174</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8">
+      <c r="F12" s="11">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="13">
+        <v>44178</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>15322926</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>15226356</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15262217</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15227008</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15323021</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15322927</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15226477</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
         <v>15226635</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8">
+        <v>15300050</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15">
+        <v>44178</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15251726</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="13">
+        <v>44179</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B23" s="5">
+        <v>15322926</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7">
-        <v>44174</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15226356</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15262217</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15227008</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
+        <v>15323021</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15322927</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15226477</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6">
+        <v>15226635</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="8">
         <v>15300050</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>44174</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5"/>
+      <c r="G31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="15">
+        <v>44179</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://s.vchangyi.com/6h" tooltip="https://s.vchangyi.com/6h"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://s.vchangyi.com/br" tooltip="https://s.vchangyi.com/br"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://s.vchangyi.com/6h" tooltip="https://s.vchangyi.com/6h"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://s.vchangyi.com/br" tooltip="https://s.vchangyi.com/br"/>
+    <hyperlink ref="D22" r:id="rId1" display="https://s.vchangyi.com/6h" tooltip="https://s.vchangyi.com/6h"/>
+    <hyperlink ref="D23" r:id="rId2" display="https://s.vchangyi.com/br" tooltip="https://s.vchangyi.com/br"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/storage/ad-coupon/fb.xlsx
+++ b/src/storage/ad-coupon/fb.xlsx
@@ -118,10 +118,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -161,13 +161,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -182,23 +175,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,93 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +313,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,37 +463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,127 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,26 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +550,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -596,6 +587,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,148 +609,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
@@ -1239,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
@@ -1271,10 +1271,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5">
         <v>30</v>
@@ -1301,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
@@ -1331,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="10">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>13</v>
